--- a/exports/incidents_report.xlsx
+++ b/exports/incidents_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>NumRef</t>
   </si>
@@ -49,22 +49,22 @@
     <t>Status</t>
   </si>
   <si>
-    <t>01250001</t>
-  </si>
-  <si>
-    <t>PESEE ERRONEE</t>
-  </si>
-  <si>
-    <t>CONTROLE HEBDOMADAIRE PONTS BASCULES</t>
+    <t>01250003</t>
+  </si>
+  <si>
+    <t>ACCIDENT SUR PERSONNE</t>
+  </si>
+  <si>
+    <t>TRAVAUX DE MAINTENANCE</t>
   </si>
   <si>
     <t>SERVEUR</t>
   </si>
   <si>
-    <t>p10</t>
-  </si>
-  <si>
-    <t>Shift(14-22)</t>
+    <t>p02</t>
+  </si>
+  <si>
+    <t>Shift(22-6)</t>
   </si>
   <si>
     <t>Jabea gaetan</t>
@@ -73,31 +73,7 @@
     <t/>
   </si>
   <si>
-    <t>CLOSED</t>
-  </si>
-  <si>
-    <t>01250003</t>
-  </si>
-  <si>
-    <t>ACCIDENT SUR PERSONNE</t>
-  </si>
-  <si>
-    <t>TRAVAUX DE MAINTENANCE</t>
-  </si>
-  <si>
-    <t>p02</t>
-  </si>
-  <si>
-    <t>Shift(22-6)</t>
-  </si>
-  <si>
     <t>UNDER_MAINTENANCE</t>
-  </si>
-  <si>
-    <t>01250002</t>
-  </si>
-  <si>
-    <t>p01</t>
   </si>
 </sst>
 </file>
@@ -475,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -530,7 +506,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1">
-        <v>45685.54178760417</v>
+        <v>45685.70500082176</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -560,82 +536,6 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45685.70500082176</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45685.65147534722</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
         <v>20</v>
       </c>
     </row>

--- a/exports/incidents_report.xlsx
+++ b/exports/incidents_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>NumRef</t>
   </si>
@@ -74,6 +74,18 @@
   </si>
   <si>
     <t>UNDER_MAINTENANCE</t>
+  </si>
+  <si>
+    <t>01250002</t>
+  </si>
+  <si>
+    <t>p01</t>
+  </si>
+  <si>
+    <t>Shift(14-22)</t>
+  </si>
+  <si>
+    <t>CLOSED</t>
   </si>
 </sst>
 </file>
@@ -451,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -539,6 +551,44 @@
         <v>20</v>
       </c>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45685.65147534722</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/exports/incidents_report.xlsx
+++ b/exports/incidents_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>NumRef</t>
   </si>
@@ -49,6 +49,33 @@
     <t>Status</t>
   </si>
   <si>
+    <t>01250001</t>
+  </si>
+  <si>
+    <t>PESEE ERRONEE</t>
+  </si>
+  <si>
+    <t>CONTROLE HEBDOMADAIRE PONTS BASCULES</t>
+  </si>
+  <si>
+    <t>SERVEUR</t>
+  </si>
+  <si>
+    <t>p10</t>
+  </si>
+  <si>
+    <t>Shift(14-22)</t>
+  </si>
+  <si>
+    <t>Jabea gaetan</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CLOSED</t>
+  </si>
+  <si>
     <t>01250003</t>
   </si>
   <si>
@@ -58,34 +85,13 @@
     <t>TRAVAUX DE MAINTENANCE</t>
   </si>
   <si>
-    <t>SERVEUR</t>
-  </si>
-  <si>
     <t>p02</t>
   </si>
   <si>
     <t>Shift(22-6)</t>
   </si>
   <si>
-    <t>Jabea gaetan</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>UNDER_MAINTENANCE</t>
-  </si>
-  <si>
-    <t>01250002</t>
-  </si>
-  <si>
-    <t>p01</t>
-  </si>
-  <si>
-    <t>Shift(14-22)</t>
-  </si>
-  <si>
-    <t>CLOSED</t>
   </si>
 </sst>
 </file>
@@ -518,7 +524,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1">
-        <v>45685.70500082176</v>
+        <v>45685.54178760417</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -556,22 +562,22 @@
         <v>21</v>
       </c>
       <c r="B3" s="1">
-        <v>45685.65147534722</v>
+        <v>45685.70500082176</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
@@ -586,7 +592,7 @@
         <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/exports/incidents_report.xlsx
+++ b/exports/incidents_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>NumRef</t>
   </si>
@@ -47,51 +47,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>01250001</t>
-  </si>
-  <si>
-    <t>PESEE ERRONEE</t>
-  </si>
-  <si>
-    <t>CONTROLE HEBDOMADAIRE PONTS BASCULES</t>
-  </si>
-  <si>
-    <t>SERVEUR</t>
-  </si>
-  <si>
-    <t>p10</t>
-  </si>
-  <si>
-    <t>Shift(14-22)</t>
-  </si>
-  <si>
-    <t>Jabea gaetan</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>CLOSED</t>
-  </si>
-  <si>
-    <t>01250003</t>
-  </si>
-  <si>
-    <t>ACCIDENT SUR PERSONNE</t>
-  </si>
-  <si>
-    <t>TRAVAUX DE MAINTENANCE</t>
-  </si>
-  <si>
-    <t>p02</t>
-  </si>
-  <si>
-    <t>Shift(22-6)</t>
-  </si>
-  <si>
-    <t>UNDER_MAINTENANCE</t>
   </si>
 </sst>
 </file>
@@ -127,9 +82,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -519,82 +473,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45685.54178760417</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45685.70500082176</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/exports/incidents_report.xlsx
+++ b/exports/incidents_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>NumRef</t>
   </si>
@@ -47,6 +47,30 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>02253472</t>
+  </si>
+  <si>
+    <t>PASSAGE SUR LE PONT SANS PESER DES CAMIONS EFFECTUANT DES NAVETTES POUR LE COMPTE DE LA SEPBC ET CEUX REFUSANT D'EFFECTUER DES PESEES DE TYPES 2. LTTR992AF, 458E13; LTTR934AT, CETR423AC, 18T2</t>
+  </si>
+  <si>
+    <t>PASSAGE SUR LE PONT SANS PESEE</t>
+  </si>
+  <si>
+    <t>PONT BASCULE</t>
+  </si>
+  <si>
+    <t>P05</t>
+  </si>
+  <si>
+    <t>PASSAGE SANS PESER</t>
+  </si>
+  <si>
+    <t>ELOUGA ALAIN</t>
+  </si>
+  <si>
+    <t>CLOSED</t>
   </si>
 </sst>
 </file>
@@ -82,8 +106,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -473,6 +498,35 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45693.618702638894</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/exports/incidents_report.xlsx
+++ b/exports/incidents_report.xlsx
@@ -49,13 +49,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t>02253472</t>
-  </si>
-  <si>
-    <t>PASSAGE SUR LE PONT SANS PESER DES CAMIONS EFFECTUANT DES NAVETTES POUR LE COMPTE DE LA SEPBC ET CEUX REFUSANT D'EFFECTUER DES PESEES DE TYPES 2. LTTR992AF, 458E13; LTTR934AT, CETR423AC, 18T2</t>
-  </si>
-  <si>
-    <t>PASSAGE SUR LE PONT SANS PESEE</t>
+    <t>02254140</t>
+  </si>
+  <si>
+    <t>PASSAGE SUR LE PONT SANS PESER</t>
+  </si>
+  <si>
+    <t>Sortie camions pont bascule</t>
   </si>
   <si>
     <t>PONT BASCULE</t>
@@ -64,10 +64,10 @@
     <t>P05</t>
   </si>
   <si>
-    <t>PASSAGE SANS PESER</t>
-  </si>
-  <si>
-    <t>ELOUGA ALAIN</t>
+    <t>Passage sanbs pesée duy véhicule immatriculé 06T1347A</t>
+  </si>
+  <si>
+    <t>NTEDE</t>
   </si>
   <si>
     <t>CLOSED</t>
@@ -503,7 +503,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1">
-        <v>45693.618702638894</v>
+        <v>45693.61891770833</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>

--- a/exports/incidents_report.xlsx
+++ b/exports/incidents_report.xlsx
@@ -49,25 +49,25 @@
     <t>Status</t>
   </si>
   <si>
-    <t>02253472</t>
-  </si>
-  <si>
-    <t>PASSAGE SUR LE PONT SANS PESER DES CAMIONS EFFECTUANT DES NAVETTES POUR LE COMPTE DE LA SEPBC ET CEUX REFUSANT D'EFFECTUER DES PESEES DE TYPES 2. LTTR992AF, 458E13; LTTR934AT, CETR423AC, 18T2</t>
-  </si>
-  <si>
-    <t>PASSAGE SUR LE PONT SANS PESEE</t>
+    <t>02254894</t>
+  </si>
+  <si>
+    <t>PASSAGE SUR LE PONT SANS PESER</t>
+  </si>
+  <si>
+    <t>Documents non conforme.</t>
   </si>
   <si>
     <t>PONT BASCULE</t>
   </si>
   <si>
-    <t>P05</t>
-  </si>
-  <si>
-    <t>PASSAGE SANS PESER</t>
-  </si>
-  <si>
-    <t>ELOUGA ALAIN</t>
+    <t>P02</t>
+  </si>
+  <si>
+    <t>Il s'agissait du camion immatriculé LT214IO, aui a effectué un passage sans peser pour document non conforme.</t>
+  </si>
+  <si>
+    <t>MBELE MBELE stéphane</t>
   </si>
   <si>
     <t>CLOSED</t>
@@ -503,7 +503,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1">
-        <v>45693.618702638894</v>
+        <v>45693.61931799768</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>

--- a/exports/incidents_report.xlsx
+++ b/exports/incidents_report.xlsx
@@ -49,25 +49,25 @@
     <t>Status</t>
   </si>
   <si>
-    <t>02254894</t>
-  </si>
-  <si>
-    <t>PASSAGE SUR LE PONT SANS PESER</t>
-  </si>
-  <si>
-    <t>Documents non conforme.</t>
+    <t>02254922</t>
+  </si>
+  <si>
+    <t>ENGORGEMENT</t>
+  </si>
+  <si>
+    <t>L'AXE LOURD ÉTAIT BLOQUE A CAUSE DE LA CAN, CAR DES JOUEURS SORTAIENT POUR LES ENTRAINEMENTS.</t>
   </si>
   <si>
     <t>PONT BASCULE</t>
   </si>
   <si>
-    <t>P02</t>
-  </si>
-  <si>
-    <t>Il s'agissait du camion immatriculé LT214IO, aui a effectué un passage sans peser pour document non conforme.</t>
-  </si>
-  <si>
-    <t>MBELE MBELE stéphane</t>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>NOUS AVONS FAIS FACE A UNE CONGESTION AU CARREFOUR MESSAPRESSE BLOQUANT MOMENTANEMENT NOS OPERATIONS.</t>
+  </si>
+  <si>
+    <t>OBONO CLAUDETTE</t>
   </si>
   <si>
     <t>CLOSED</t>
@@ -503,7 +503,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1">
-        <v>45693.61931799768</v>
+        <v>45693.61932586806</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>

--- a/exports/incidents_report.xlsx
+++ b/exports/incidents_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>NumRef</t>
   </si>
@@ -49,25 +49,22 @@
     <t>Status</t>
   </si>
   <si>
-    <t>02254922</t>
-  </si>
-  <si>
-    <t>ENGORGEMENT</t>
-  </si>
-  <si>
-    <t>L'AXE LOURD ÉTAIT BLOQUE A CAUSE DE LA CAN, CAR DES JOUEURS SORTAIENT POUR LES ENTRAINEMENTS.</t>
-  </si>
-  <si>
-    <t>PONT BASCULE</t>
-  </si>
-  <si>
-    <t>P16</t>
-  </si>
-  <si>
-    <t>NOUS AVONS FAIS FACE A UNE CONGESTION AU CARREFOUR MESSAPRESSE BLOQUANT MOMENTANEMENT NOS OPERATIONS.</t>
-  </si>
-  <si>
-    <t>OBONO CLAUDETTE</t>
+    <t>02254432</t>
+  </si>
+  <si>
+    <t>COUPURE ELECTRIQUE</t>
+  </si>
+  <si>
+    <t>GROUPE ELECTROGENE</t>
+  </si>
+  <si>
+    <t>P02</t>
+  </si>
+  <si>
+    <t>On a eu coupure d'électricité sur notre pont</t>
+  </si>
+  <si>
+    <t>FOTSO TSOBGNY FRANCK JOEL</t>
   </si>
   <si>
     <t>CLOSED</t>
@@ -503,28 +500,28 @@
         <v>12</v>
       </c>
       <c r="B2" s="1">
-        <v>45693.61932586806</v>
+        <v>45693.61901905092</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/exports/incidents_report.xlsx
+++ b/exports/incidents_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>NumRef</t>
   </si>
@@ -34,15 +34,12 @@
     <t>Shift</t>
   </si>
   <si>
-    <t>Chef de guerite</t>
+    <t>Utilisateur</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
-    <t>Créé par</t>
-  </si>
-  <si>
     <t>Édité par</t>
   </si>
   <si>
@@ -61,13 +58,37 @@
     <t>P02</t>
   </si>
   <si>
+    <t>FOTSO TSOBGNY FRANCK JOEL</t>
+  </si>
+  <si>
     <t>On a eu coupure d'électricité sur notre pont</t>
   </si>
   <si>
-    <t>FOTSO TSOBGNY FRANCK JOEL</t>
-  </si>
-  <si>
-    <t>CLOSED</t>
+    <t>CLOTURE</t>
+  </si>
+  <si>
+    <t>02254941</t>
+  </si>
+  <si>
+    <t>Le groupe électrogène sous alimenté à notre arrivée</t>
+  </si>
+  <si>
+    <t>ECLAIRAGE EXTERIEUR</t>
+  </si>
+  <si>
+    <t>P04</t>
+  </si>
+  <si>
+    <t>Shift(22-6)</t>
+  </si>
+  <si>
+    <t>Admin User</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>EN ATTENTE</t>
   </si>
 </sst>
 </file>
@@ -445,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -454,10 +475,10 @@
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="50" customWidth="1"/>
-    <col min="10" max="12" width="20" customWidth="1"/>
+    <col min="10" max="11" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,37 +512,66 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>45693.61901905092</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45712.14526259259</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/exports/incidents_report.xlsx
+++ b/exports/incidents_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>NumRef</t>
   </si>
@@ -46,49 +46,46 @@
     <t>Status</t>
   </si>
   <si>
-    <t>02254432</t>
+    <t>02254942</t>
+  </si>
+  <si>
+    <t>PANNE DE CAMION SUR LE PONT</t>
+  </si>
+  <si>
+    <t>Un cable a dû être mouillé suite à la forte pluie qui s'est abattu en ce jour</t>
+  </si>
+  <si>
+    <t>PONT BASCULE</t>
+  </si>
+  <si>
+    <t>P04</t>
+  </si>
+  <si>
+    <t>Shift(22-6)</t>
+  </si>
+  <si>
+    <t>Admin User</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CLOTURE</t>
+  </si>
+  <si>
+    <t>02254941</t>
   </si>
   <si>
     <t>COUPURE ELECTRIQUE</t>
   </si>
   <si>
-    <t>GROUPE ELECTROGENE</t>
-  </si>
-  <si>
-    <t>P02</t>
-  </si>
-  <si>
-    <t>FOTSO TSOBGNY FRANCK JOEL</t>
-  </si>
-  <si>
-    <t>On a eu coupure d'électricité sur notre pont</t>
-  </si>
-  <si>
-    <t>CLOTURE</t>
-  </si>
-  <si>
-    <t>02254941</t>
-  </si>
-  <si>
     <t>Le groupe électrogène sous alimenté à notre arrivée</t>
   </si>
   <si>
     <t>ECLAIRAGE EXTERIEUR</t>
   </si>
   <si>
-    <t>P04</t>
-  </si>
-  <si>
-    <t>Shift(22-6)</t>
-  </si>
-  <si>
-    <t>Admin User</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>EN ATTENTE</t>
+    <t>EN MAINTENANCE</t>
   </si>
 </sst>
 </file>
@@ -518,60 +515,63 @@
         <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>45693.61901905092</v>
+        <v>45712.41981063657</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>45712.14526259259</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/exports/incidents_report.xlsx
+++ b/exports/incidents_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>NumRef</t>
   </si>
@@ -44,6 +44,30 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>02250221</t>
+  </si>
+  <si>
+    <t>INTEMPERIE</t>
+  </si>
+  <si>
+    <t>PHENOMENE NATUREL</t>
+  </si>
+  <si>
+    <t>ESPACE DE PESEES</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>OBAM FREDDY</t>
+  </si>
+  <si>
+    <t>FORTE PLUIE PENDANT LE SHIFT</t>
+  </si>
+  <si>
+    <t>CLOTURE</t>
   </si>
 </sst>
 </file>
@@ -79,8 +103,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -467,6 +492,35 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45693.61776538195</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/exports/incidents_report.xlsx
+++ b/exports/incidents_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>NumRef</t>
   </si>
@@ -46,25 +46,22 @@
     <t>Status</t>
   </si>
   <si>
-    <t>02250221</t>
-  </si>
-  <si>
-    <t>INTEMPERIE</t>
-  </si>
-  <si>
-    <t>PHENOMENE NATUREL</t>
-  </si>
-  <si>
-    <t>ESPACE DE PESEES</t>
-  </si>
-  <si>
-    <t>P03</t>
-  </si>
-  <si>
-    <t>OBAM FREDDY</t>
-  </si>
-  <si>
-    <t>FORTE PLUIE PENDANT LE SHIFT</t>
+    <t>02254432</t>
+  </si>
+  <si>
+    <t>COUPURE ELECTRIQUE</t>
+  </si>
+  <si>
+    <t>GROUPE ELECTROGENE</t>
+  </si>
+  <si>
+    <t>P02</t>
+  </si>
+  <si>
+    <t>FOTSO TSOBGNY FRANCK JOEL</t>
+  </si>
+  <si>
+    <t>On a eu coupure d'électricité sur notre pont</t>
   </si>
   <si>
     <t>CLOTURE</t>
@@ -497,28 +494,28 @@
         <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>45693.61776538195</v>
+        <v>45693.61901905092</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/exports/incidents_report.xlsx
+++ b/exports/incidents_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>NumRef</t>
   </si>
@@ -46,25 +46,34 @@
     <t>Status</t>
   </si>
   <si>
-    <t>02254432</t>
+    <t>02254942</t>
   </si>
   <si>
     <t>COUPURE ELECTRIQUE</t>
   </si>
   <si>
-    <t>GROUPE ELECTROGENE</t>
-  </si>
-  <si>
-    <t>P02</t>
-  </si>
-  <si>
-    <t>FOTSO TSOBGNY FRANCK JOEL</t>
-  </si>
-  <si>
-    <t>On a eu coupure d'électricité sur notre pont</t>
+    <t>L'AXE LOURD ÉTAIT BLOQUE A CAUSE DE LA CAN, CAR DES JOUEURS SORTAIENT POUR LES ENTRAINEMENTS.</t>
+  </si>
+  <si>
+    <t>AIRE DE PESEES</t>
+  </si>
+  <si>
+    <t>SALLE D'ATTENTE NIVEAU 1</t>
+  </si>
+  <si>
+    <t>Shift(14-22)</t>
+  </si>
+  <si>
+    <t>Admin User</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>CLOTURE</t>
+  </si>
+  <si>
+    <t>02254941</t>
   </si>
 </sst>
 </file>
@@ -442,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -494,28 +503,63 @@
         <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>45693.61901905092</v>
+        <v>45716.729421724536</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45715.651471307865</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
+      <c r="H3" t="s">
         <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/exports/incidents_report.xlsx
+++ b/exports/incidents_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>NumRef</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>02254942</t>
+    <t>03250001</t>
   </si>
   <si>
     <t>COUPURE ELECTRIQUE</t>
@@ -67,13 +67,10 @@
     <t>Admin User</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>CLOTURE</t>
-  </si>
-  <si>
-    <t>02254941</t>
+    <t>dfgdf</t>
+  </si>
+  <si>
+    <t>EN ATTENTE</t>
   </si>
 </sst>
 </file>
@@ -451,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -503,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>45716.729421724536</v>
+        <v>45720.35496090278</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -527,38 +524,6 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45715.651471307865</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
         <v>19</v>
       </c>
     </row>

--- a/exports/incidents_report.xlsx
+++ b/exports/incidents_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>NumRef</t>
   </si>
@@ -19,6 +19,12 @@
     <t>Date de creation</t>
   </si>
   <si>
+    <t>Date de cloture</t>
+  </si>
+  <si>
+    <t>Durée de résolution</t>
+  </si>
+  <si>
     <t>Type d'incident</t>
   </si>
   <si>
@@ -37,6 +43,9 @@
     <t>Utilisateur</t>
   </si>
   <si>
+    <t>Cloturé par</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
@@ -49,6 +58,9 @@
     <t>03250001</t>
   </si>
   <si>
+    <t>175 Heure(s)</t>
+  </si>
+  <si>
     <t>COUPURE ELECTRIQUE</t>
   </si>
   <si>
@@ -67,10 +79,34 @@
     <t>Admin User</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>dfgdf</t>
   </si>
   <si>
-    <t>EN ATTENTE</t>
+    <t>EN MAINTENANCE</t>
+  </si>
+  <si>
+    <t>02254432</t>
+  </si>
+  <si>
+    <t>-482990 Heure(s)</t>
+  </si>
+  <si>
+    <t>GROUPE ELECTROGENE</t>
+  </si>
+  <si>
+    <t>P02</t>
+  </si>
+  <si>
+    <t>FOTSO TSOBGNY FRANCK JOEL</t>
+  </si>
+  <si>
+    <t>On a eu coupure d'électricité sur notre pont</t>
+  </si>
+  <si>
+    <t>CLOTURE</t>
   </si>
 </sst>
 </file>
@@ -448,19 +484,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="4" width="50" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="50" customWidth="1"/>
-    <col min="10" max="11" width="20" customWidth="1"/>
+    <col min="2" max="3" width="20" customWidth="1"/>
+    <col min="4" max="6" width="50" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="50" customWidth="1"/>
+    <col min="13" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,37 +530,90 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
         <v>45720.35496090278</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
+      <c r="C2" s="1">
+        <v>45727.67790376158</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45693.61901905092</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/exports/incidents_report.xlsx
+++ b/exports/incidents_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>NumRef</t>
   </si>
@@ -55,58 +55,109 @@
     <t>Status</t>
   </si>
   <si>
+    <t>03250004</t>
+  </si>
+  <si>
+    <t>3 Heure(s)</t>
+  </si>
+  <si>
+    <t>COUPURE ELECTRIQUE</t>
+  </si>
+  <si>
+    <t>L'AXE LOURD ÉTAIT BLOQUE A CAUSE DE LA CAN, CAR DES JOUEURS SORTAIENT POUR LES ENTRAINEMENTS.</t>
+  </si>
+  <si>
+    <t>AIRE DE PESEES</t>
+  </si>
+  <si>
+    <t>SALLE DE CONFERENCE ROOM</t>
+  </si>
+  <si>
+    <t>Shift(14-22)</t>
+  </si>
+  <si>
+    <t>Admin User</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>EN MAINTENANCE</t>
+  </si>
+  <si>
+    <t>03250007</t>
+  </si>
+  <si>
+    <t>19 Heure(s)</t>
+  </si>
+  <si>
+    <t>CAMION EN PANNE DANS LA ZONE DE PRE-PESEE</t>
+  </si>
+  <si>
+    <t>CLOTURE</t>
+  </si>
+  <si>
     <t>03250001</t>
   </si>
   <si>
     <t>175 Heure(s)</t>
   </si>
   <si>
-    <t>COUPURE ELECTRIQUE</t>
-  </si>
-  <si>
-    <t>L'AXE LOURD ÉTAIT BLOQUE A CAUSE DE LA CAN, CAR DES JOUEURS SORTAIENT POUR LES ENTRAINEMENTS.</t>
-  </si>
-  <si>
-    <t>AIRE DE PESEES</t>
-  </si>
-  <si>
     <t>SALLE D'ATTENTE NIVEAU 1</t>
   </si>
   <si>
-    <t>Shift(14-22)</t>
-  </si>
-  <si>
-    <t>Admin User</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>dfgdf</t>
   </si>
   <si>
-    <t>EN MAINTENANCE</t>
-  </si>
-  <si>
-    <t>02254432</t>
+    <t>03250002</t>
+  </si>
+  <si>
+    <t>-483874 Heure(s)</t>
+  </si>
+  <si>
+    <t>Shift(6-14)</t>
+  </si>
+  <si>
+    <t>03250008</t>
+  </si>
+  <si>
+    <t>-483970 Heure(s)</t>
+  </si>
+  <si>
+    <t>RAS</t>
+  </si>
+  <si>
+    <t>02250034</t>
   </si>
   <si>
     <t>-482990 Heure(s)</t>
   </si>
   <si>
-    <t>GROUPE ELECTROGENE</t>
-  </si>
-  <si>
-    <t>P02</t>
-  </si>
-  <si>
-    <t>FOTSO TSOBGNY FRANCK JOEL</t>
-  </si>
-  <si>
-    <t>On a eu coupure d'électricité sur notre pont</t>
-  </si>
-  <si>
-    <t>CLOTURE</t>
+    <t>ENGORGEMENT</t>
+  </si>
+  <si>
+    <t>EMBOUTEILLAGE</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>MBAH SONIA</t>
+  </si>
+  <si>
+    <t>Les opérations ont été interrompu au P03 de 13h20-14h05. nous avons eu un embouteillage sur l'axe de l'UDEAC prenant le corridor MESAPRESSE jusqu'au carrefour PARC A BOIS passant par le P18 e</t>
+  </si>
+  <si>
+    <t>03250003</t>
+  </si>
+  <si>
+    <t>-483949 Heure(s)</t>
+  </si>
+  <si>
+    <t>vbnfb</t>
   </si>
 </sst>
 </file>
@@ -484,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -545,10 +596,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="1">
-        <v>45720.35496090278</v>
+        <v>45733.571440011576</v>
       </c>
       <c r="C2" s="1">
-        <v>45727.67790376158</v>
+        <v>45733.71721711806</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -586,34 +637,230 @@
         <v>25</v>
       </c>
       <c r="B3" s="1">
-        <v>45693.61901905092</v>
+        <v>45733.625245891206</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45734.4447191088</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
         <v>22</v>
       </c>
       <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45720.35496090278</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45727.67790376158</v>
+      </c>
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="N3" t="s">
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45730.43815700231</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45734.437908148146</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45693.61758100694</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45733.551579293984</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/exports/incidents_report.xlsx
+++ b/exports/incidents_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
   <si>
     <t>NumRef</t>
   </si>
@@ -55,109 +55,88 @@
     <t>Status</t>
   </si>
   <si>
-    <t>03250004</t>
-  </si>
-  <si>
-    <t>3 Heure(s)</t>
+    <t>03250016</t>
+  </si>
+  <si>
+    <t>-483992 Heure(s)</t>
   </si>
   <si>
     <t>COUPURE ELECTRIQUE</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>AIRE DE PESEES</t>
+  </si>
+  <si>
+    <t>SALLE D'ATTENTE NIVEAU 1</t>
+  </si>
+  <si>
+    <t>Shift(22-6)</t>
+  </si>
+  <si>
+    <t>Admin User</t>
+  </si>
+  <si>
+    <t>CLOTURE</t>
+  </si>
+  <si>
+    <t>03250015</t>
+  </si>
+  <si>
+    <t>CAMION EN PANNE DANS LA ZONE DE PRE-PESEE</t>
+  </si>
+  <si>
+    <t>GROUPE ELECTROGENE</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>Shift(6-14)</t>
+  </si>
+  <si>
+    <t>03250020</t>
+  </si>
+  <si>
+    <t>-483993 Heure(s)</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>EN ATTENTE</t>
+  </si>
+  <si>
+    <t>03250014</t>
+  </si>
+  <si>
+    <t>0 Heure(s)</t>
+  </si>
+  <si>
+    <t>SALLE DE CONFERENCE ROOM</t>
+  </si>
+  <si>
+    <t>03250017</t>
+  </si>
+  <si>
     <t>L'AXE LOURD ÉTAIT BLOQUE A CAUSE DE LA CAN, CAR DES JOUEURS SORTAIENT POUR LES ENTRAINEMENTS.</t>
   </si>
   <si>
-    <t>AIRE DE PESEES</t>
-  </si>
-  <si>
-    <t>SALLE DE CONFERENCE ROOM</t>
-  </si>
-  <si>
-    <t>Shift(14-22)</t>
-  </si>
-  <si>
-    <t>Admin User</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t/>
+    <t>03250019</t>
+  </si>
+  <si>
+    <t>P02</t>
   </si>
   <si>
     <t>EN MAINTENANCE</t>
   </si>
   <si>
-    <t>03250007</t>
-  </si>
-  <si>
-    <t>19 Heure(s)</t>
-  </si>
-  <si>
-    <t>CAMION EN PANNE DANS LA ZONE DE PRE-PESEE</t>
-  </si>
-  <si>
-    <t>CLOTURE</t>
-  </si>
-  <si>
-    <t>03250001</t>
-  </si>
-  <si>
-    <t>175 Heure(s)</t>
-  </si>
-  <si>
-    <t>SALLE D'ATTENTE NIVEAU 1</t>
-  </si>
-  <si>
-    <t>dfgdf</t>
-  </si>
-  <si>
-    <t>03250002</t>
-  </si>
-  <si>
-    <t>-483874 Heure(s)</t>
-  </si>
-  <si>
-    <t>Shift(6-14)</t>
-  </si>
-  <si>
-    <t>03250008</t>
-  </si>
-  <si>
-    <t>-483970 Heure(s)</t>
-  </si>
-  <si>
-    <t>RAS</t>
-  </si>
-  <si>
-    <t>02250034</t>
-  </si>
-  <si>
-    <t>-482990 Heure(s)</t>
-  </si>
-  <si>
-    <t>ENGORGEMENT</t>
-  </si>
-  <si>
-    <t>EMBOUTEILLAGE</t>
-  </si>
-  <si>
-    <t>P03</t>
-  </si>
-  <si>
-    <t>MBAH SONIA</t>
-  </si>
-  <si>
-    <t>Les opérations ont été interrompu au P03 de 13h20-14h05. nous avons eu un embouteillage sur l'axe de l'UDEAC prenant le corridor MESAPRESSE jusqu'au carrefour PARC A BOIS passant par le P18 e</t>
-  </si>
-  <si>
-    <t>03250003</t>
-  </si>
-  <si>
-    <t>-483949 Heure(s)</t>
-  </si>
-  <si>
-    <t>vbnfb</t>
+    <t>03250018</t>
+  </si>
+  <si>
+    <t>INDICATEUR DE POIDS</t>
   </si>
 </sst>
 </file>
@@ -596,10 +575,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1">
-        <v>45733.571440011576</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45733.71721711806</v>
+        <v>45735.36063092593</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -623,71 +599,65 @@
         <v>21</v>
       </c>
       <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
         <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45735.34356770833</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1">
-        <v>45733.625245891206</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45734.4447191088</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
       <c r="J3" t="s">
         <v>21</v>
       </c>
       <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
         <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45735.39461263889</v>
+      </c>
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1">
-        <v>45720.35496090278</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45727.67790376158</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -696,36 +666,39 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" t="s">
         <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45735.210193900464</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45735.21204090278</v>
+      </c>
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="1">
-        <v>45730.43815700231</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -734,133 +707,139 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
         <v>21</v>
       </c>
       <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" t="s">
         <v>22</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45735.3651837963</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45734.437908148146</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
       </c>
       <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" t="s">
         <v>22</v>
-      </c>
-      <c r="L6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1">
-        <v>45693.61758100694</v>
+        <v>45735.38652141204</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1">
-        <v>45733.551579293984</v>
+        <v>45735.37092025463</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45735.37163083334</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
       <c r="J8" t="s">
         <v>21</v>
       </c>
       <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" t="s">
         <v>22</v>
-      </c>
-      <c r="L8" t="s">
-        <v>48</v>
-      </c>
-      <c r="N8" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/exports/incidents_report.xlsx
+++ b/exports/incidents_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>NumRef</t>
   </si>
@@ -40,7 +40,10 @@
     <t>Shift</t>
   </si>
   <si>
-    <t>Utilisateur</t>
+    <t>Initiateur</t>
+  </si>
+  <si>
+    <t>Intervenant/Techn.</t>
   </si>
   <si>
     <t>Cloturé par</t>
@@ -55,88 +58,31 @@
     <t>Status</t>
   </si>
   <si>
-    <t>03250016</t>
-  </si>
-  <si>
-    <t>-483992 Heure(s)</t>
-  </si>
-  <si>
-    <t>COUPURE ELECTRIQUE</t>
+    <t>03250019</t>
+  </si>
+  <si>
+    <t>17 Heure(s) 1049 Min(s) 62994 Sec(s)</t>
+  </si>
+  <si>
+    <t>Incident 2</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>AIRE DE PESEES</t>
-  </si>
-  <si>
-    <t>SALLE D'ATTENTE NIVEAU 1</t>
-  </si>
-  <si>
-    <t>Shift(22-6)</t>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>SALLE DE CONFERENCE ROOM</t>
+  </si>
+  <si>
+    <t>Shift(6-14)</t>
   </si>
   <si>
     <t>Admin User</t>
   </si>
   <si>
     <t>CLOTURE</t>
-  </si>
-  <si>
-    <t>03250015</t>
-  </si>
-  <si>
-    <t>CAMION EN PANNE DANS LA ZONE DE PRE-PESEE</t>
-  </si>
-  <si>
-    <t>GROUPE ELECTROGENE</t>
-  </si>
-  <si>
-    <t>P11</t>
-  </si>
-  <si>
-    <t>Shift(6-14)</t>
-  </si>
-  <si>
-    <t>03250020</t>
-  </si>
-  <si>
-    <t>-483993 Heure(s)</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>EN ATTENTE</t>
-  </si>
-  <si>
-    <t>03250014</t>
-  </si>
-  <si>
-    <t>0 Heure(s)</t>
-  </si>
-  <si>
-    <t>SALLE DE CONFERENCE ROOM</t>
-  </si>
-  <si>
-    <t>03250017</t>
-  </si>
-  <si>
-    <t>L'AXE LOURD ÉTAIT BLOQUE A CAUSE DE LA CAN, CAR DES JOUEURS SORTAIENT POUR LES ENTRAINEMENTS.</t>
-  </si>
-  <si>
-    <t>03250019</t>
-  </si>
-  <si>
-    <t>P02</t>
-  </si>
-  <si>
-    <t>EN MAINTENANCE</t>
-  </si>
-  <si>
-    <t>03250018</t>
-  </si>
-  <si>
-    <t>INDICATEUR DE POIDS</t>
   </si>
 </sst>
 </file>
@@ -514,19 +460,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="3" width="20" customWidth="1"/>
     <col min="4" max="6" width="50" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="50" customWidth="1"/>
-    <col min="13" max="14" width="20" customWidth="1"/>
+    <col min="8" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="50" customWidth="1"/>
+    <col min="14" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,277 +515,52 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1">
-        <v>45735.36063092593</v>
+        <v>45736.64626851852</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45737.375374166666</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45735.34356770833</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45735.39461263889</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45735.210193900464</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45735.21204090278</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45735.3651837963</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45735.38652141204</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45735.37092025463</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45735.37163083334</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/exports/incidents_report.xlsx
+++ b/exports/incidents_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>NumRef</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Date de cloture</t>
   </si>
   <si>
-    <t>Durée de résolution</t>
+    <t>Durée en minutes</t>
   </si>
   <si>
     <t>Type d'incident</t>
@@ -58,19 +58,19 @@
     <t>Status</t>
   </si>
   <si>
-    <t>03250019</t>
-  </si>
-  <si>
-    <t>17 Heure(s) 1049 Min(s) 62994 Sec(s)</t>
-  </si>
-  <si>
-    <t>Incident 2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Printer</t>
+    <t>04250006</t>
+  </si>
+  <si>
+    <t>7386</t>
+  </si>
+  <si>
+    <t>Type  incident 1</t>
+  </si>
+  <si>
+    <t>Cause incident 1</t>
+  </si>
+  <si>
+    <t>Ordinateur</t>
   </si>
   <si>
     <t>SALLE DE CONFERENCE ROOM</t>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>Admin User</t>
+  </si>
+  <si>
+    <t>2LM</t>
+  </si>
+  <si>
+    <t>klkk</t>
   </si>
   <si>
     <t>CLOTURE</t>
@@ -89,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -97,16 +103,24 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -114,12 +128,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -473,49 +495,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -523,11 +545,11 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1">
-        <v>45736.64626851852</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45737.375374166666</v>
+      <c r="B2" s="2">
+        <v>45771.52749412037</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45776.65680375</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -551,16 +573,16 @@
         <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/exports/incidents_report.xlsx
+++ b/exports/incidents_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>NumRef</t>
   </si>
@@ -58,37 +58,61 @@
     <t>Status</t>
   </si>
   <si>
-    <t>04250006</t>
-  </si>
-  <si>
-    <t>7386</t>
-  </si>
-  <si>
-    <t>Type  incident 1</t>
+    <t>06250003</t>
+  </si>
+  <si>
+    <t>N/C</t>
+  </si>
+  <si>
+    <t>Type d'incident 1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>Shift(14-22)</t>
+  </si>
+  <si>
+    <t>Admin User</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>This incident happened due to negligence of the Guerit chef</t>
+  </si>
+  <si>
+    <t>EN MAINTENANCE</t>
+  </si>
+  <si>
+    <t>06250004</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>Cause incident 1</t>
   </si>
   <si>
-    <t>Ordinateur</t>
-  </si>
-  <si>
-    <t>SALLE DE CONFERENCE ROOM</t>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>NOELLE JEANNE</t>
+  </si>
+  <si>
+    <t>CLOTURE</t>
+  </si>
+  <si>
+    <t>06250001</t>
+  </si>
+  <si>
+    <t>SALLE D'ATTENTE NIVEAU 1</t>
   </si>
   <si>
     <t>Shift(6-14)</t>
-  </si>
-  <si>
-    <t>Admin User</t>
-  </si>
-  <si>
-    <t>2LM</t>
-  </si>
-  <si>
-    <t>klkk</t>
-  </si>
-  <si>
-    <t>CLOTURE</t>
   </si>
 </sst>
 </file>
@@ -482,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -546,10 +570,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2">
-        <v>45771.52749412037</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45776.65680375</v>
+        <v>45819.41148925926</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -560,29 +581,105 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" t="s">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>25</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45820.635023090275</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45820.63515135417</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45818.687470613426</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
